--- a/data/TED180930.xlsx
+++ b/data/TED180930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201802/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45045F6D-CD83-744C-B88E-E31F0987EE5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B3A840-F626-2747-9B5E-C60B0237EAFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10740" yWindow="460" windowWidth="35820" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,6 +502,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -549,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +572,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -863,7 +869,7 @@
     <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -874,7 +880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +889,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -892,7 +898,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="32">
+    <row r="4" spans="1:6" ht="32">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +907,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -910,7 +916,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -930,7 +936,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -941,7 +947,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -952,7 +958,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -963,7 +969,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -974,7 +980,7 @@
         <v>43365</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -985,7 +991,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1000,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1002,10 +1008,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="4">
-        <v>43352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>43352.500127314815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1015,8 +1021,9 @@
       <c r="C15" s="4">
         <v>43373</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
